--- a/biology/Médecine/1750_en_santé_et_médecine/1750_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1750_en_santé_et_médecine/1750_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1750_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1750_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1750 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1750_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1750_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décembre : La Martinière, Premier chirurgien de Louis XV, obtient la révision des règlements des chirurgiens de province[1].
-Ouverture d'une école pratique d'anatomie à Paris, sur l'île de la Cité, « pour permettre aux étudiants de disséquer les cadavres et répéter les opérations[1] ».
-En France, « un « médecin correspondant des épidémies » est nommé dans chaque généralité[2] ».
-« Le Collège royal de chirurgie remplace les cinq chaires de « démonstrateurs royaux » établies en 1724[3]. »
-Vers 1750 : Angélique du Coudray, sage-femme, invente un mannequin conçu pour enseigner l'art des accouchements et connu sous le nom de « machine de madame du Coudray[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décembre : La Martinière, Premier chirurgien de Louis XV, obtient la révision des règlements des chirurgiens de province.
+Ouverture d'une école pratique d'anatomie à Paris, sur l'île de la Cité, « pour permettre aux étudiants de disséquer les cadavres et répéter les opérations ».
+En France, « un « médecin correspondant des épidémies » est nommé dans chaque généralité ».
+« Le Collège royal de chirurgie remplace les cinq chaires de « démonstrateurs royaux » établies en 1724. »
+Vers 1750 : Angélique du Coudray, sage-femme, invente un mannequin conçu pour enseigner l'art des accouchements et connu sous le nom de « machine de madame du Coudray ».</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1750_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1750_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. la dame Chevet, sage-femme jurée à Paris, souvent citée par André Levret, Pusos et Elizabeth Nihell, ses contemporains[5].
-Fl. madame de Lunel, sage-femme jurée à Chartres, autrice d'un procédé « fort ingénieux pour connaître le point d'implantation du placenta, sans introduire la main dans la matrice[5] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. la dame Chevet, sage-femme jurée à Paris, souvent citée par André Levret, Pusos et Elizabeth Nihell, ses contemporains.
+Fl. madame de Lunel, sage-femme jurée à Chartres, autrice d'un procédé « fort ingénieux pour connaître le point d'implantation du placenta, sans introduire la main dans la matrice ».</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1750_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1750_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Joseph Reisser (mort en 1816), docteur en médecine à Thann, en Alsace[6].
-1738[7] ou 1750 : Charles Deslon (mort en 1786), maître régent à la faculté de médecine de Paris, membre de la Société royale de médecine et médecin ordinaire du comte d'Artois[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Joseph Reisser (mort en 1816), docteur en médecine à Thann, en Alsace.
+1738 ou 1750 : Charles Deslon (mort en 1786), maître régent à la faculté de médecine de Paris, membre de la Société royale de médecine et médecin ordinaire du comte d'Artois.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1750_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1750_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20 avril : Jean-Louis Petit (né en 1674), anatomiste[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20 avril : Jean-Louis Petit (né en 1674), anatomiste.</t>
         </is>
       </c>
     </row>
